--- a/docs/requirements/Master Data Tables - Test Data/master-device_spec.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-device_spec.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -115,27 +115,6 @@
   </si>
   <si>
     <t>لمسح قزحية العين</t>
-  </si>
-  <si>
-    <t>Vostro</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>DKS</t>
-  </si>
-  <si>
-    <t>To take enrollments</t>
-  </si>
-  <si>
-    <t>ستر  </t>
-  </si>
-  <si>
-    <t>دلّ  </t>
-  </si>
-  <si>
-    <t>لأخذ التسجيلات</t>
   </si>
   <si>
     <t>Webcam </t>
@@ -1045,9 +1024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1228,7 +1209,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>589</v>
+        <v>736</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
@@ -1236,17 +1217,17 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6">
-        <v>3568</v>
+      <c r="D6" t="s">
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>1.454</v>
+        <v>2.0859999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -1263,25 +1244,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>638</v>
+        <v>769</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>3568</v>
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>1.454</v>
+        <v>2.0859999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -1298,25 +1279,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>736</v>
+        <v>801</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>2.0859999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -1333,25 +1314,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>769</v>
+        <v>822</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9">
-        <v>2.0859999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -1368,25 +1349,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>801</v>
+        <v>920</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10">
-        <v>1.02</v>
+        <v>1.123</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -1403,25 +1384,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>822</v>
+        <v>967</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>1.123</v>
+      </c>
+      <c r="G11" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>1.02</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -1433,80 +1414,11 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>920</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12">
-        <v>1.123</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>967</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13">
-        <v>1.123</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-device_spec.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-device_spec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Updated Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A12" sqref="A12:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>482</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>967</v>
+        <v>920</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
